--- a/src/main/resources/light_weight_data/1821804864447971328_data.xlsx
+++ b/src/main/resources/light_weight_data/1821804864447971328_data.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -159,6 +159,32 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>~GVkZwRkZGVl</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>~GVkZwRkZGVl</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>|aqSoQRdWQZkZGRlZt==</t>
+        </is>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>~GtlZGtjAQt5AQD3Amx6ZGZlBQRkZGVl</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/light_weight_data/1821804864447971328_data.xlsx
+++ b/src/main/resources/light_weight_data/1821804864447971328_data.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,21 +135,21 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>~GVkZwRkZGVl</t>
+          <t>~GRkZGRkZwV=</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>~GVkZwRkZGVl</t>
+          <t>~GRkZGRkZwV=</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>|aqSoQRdWQZkZGRlZt==</t>
+          <t>~vS8o34NXlD8XKEGZGRkZwV=</t>
         </is>
       </c>
       <c r="E2" s="2"/>
@@ -161,25 +161,77 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>~GVkZwRkZGVl</t>
+          <t>~GRkZGRkZwV=</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>~GVkZwRkZGVl</t>
+          <t>~GRkZGRkZwV=</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>|aqSoQRdWQZkZGRlZt==</t>
+          <t>mmt5D6L8VGDdLlLkZGRkZwV=</t>
         </is>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>~GtlZGtjAQt5AQD3Amx6ZGZlBQRkZGVl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>~GRkZGRkZwV=</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>~GRkZGRlZt==</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>J7yHwy7WH3dVID4ZGRkZwV=</t>
+        </is>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>~GtlZGtjAQt5AQD3Amx6ZGZlBQRkZGVl</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>~GRkZGRlZt==</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>~GRkZGRkZwV=</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>QDyAJ2mZGDknI8DZGRkZwV=</t>
+        </is>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>~GtlZGtjAQt5AQD3Amx6ZGZlBQRkZGVl</t>
         </is>

--- a/src/main/resources/light_weight_data/1821804864447971328_data.xlsx
+++ b/src/main/resources/light_weight_data/1821804864447971328_data.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -237,6 +237,32 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>~GRkZGRlZt==</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>~GRkZGRkZwV=</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>IDyLGRxAQtuXmWqZGRkZwV=</t>
+        </is>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>~GtlZGtjAQt5AQD3Amx6ZGZlBQRkZGVl</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
